--- a/test_ciag_dalszy.xlsx
+++ b/test_ciag_dalszy.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_dla_średnich" sheetId="1" r:id="rId1"/>
-    <sheet name="test_na_wariancje" sheetId="2" r:id="rId2"/>
-    <sheet name="test_na_frakcje" sheetId="3" r:id="rId3"/>
+    <sheet name="z30" sheetId="4" r:id="rId2"/>
+    <sheet name="test_na_wariancje" sheetId="2" r:id="rId3"/>
+    <sheet name="test_na_frakcje" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>K</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>Odestki mieszkańców popierających projekt na 95% są sobie równe</t>
+  </si>
+  <si>
+    <t>test prawo stronny</t>
   </si>
 </sst>
 </file>
@@ -395,6 +399,49 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286477</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5210902" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20074</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -466,7 +513,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1143,6 +1190,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.NORM.S.INV(2*0.05)</f>
+        <v>-1.2815515655446006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1268,11 +1356,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/test_ciag_dalszy.xlsx
+++ b/test_ciag_dalszy.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_dla_średnich" sheetId="1" r:id="rId1"/>
     <sheet name="z30" sheetId="4" r:id="rId2"/>
-    <sheet name="test_na_wariancje" sheetId="2" r:id="rId3"/>
-    <sheet name="test_na_frakcje" sheetId="3" r:id="rId4"/>
+    <sheet name="Arkusz5" sheetId="5" r:id="rId3"/>
+    <sheet name="test_na_wariancje" sheetId="2" r:id="rId4"/>
+    <sheet name="test_na_frakcje" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>K</t>
   </si>
@@ -195,6 +196,21 @@
   </si>
   <si>
     <t>test prawo stronny</t>
+  </si>
+  <si>
+    <t>xśr1=</t>
+  </si>
+  <si>
+    <t>s1=</t>
+  </si>
+  <si>
+    <t>s2=</t>
+  </si>
+  <si>
+    <t>F=</t>
+  </si>
+  <si>
+    <t>nie odrzucamy h0</t>
   </si>
 </sst>
 </file>
@@ -442,6 +458,49 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372208</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5249008" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20074</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -513,7 +572,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1190,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:F10"/>
+  <dimension ref="B8:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,6 +1282,22 @@
         <v>-1.2815515655446006</v>
       </c>
     </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1230,6 +1305,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>B7/B8</f>
+        <v>1.0646950092421441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.F.INV.RT(0.05,11,11)</f>
+        <v>2.8179304699530876</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:E28"/>
   <sheetViews>
@@ -1356,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B18:F28"/>
   <sheetViews>
